--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Oman_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Oman_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G306"/>
+  <dimension ref="A1:G309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8092,12 +8092,87 @@
         <v>0.385</v>
       </c>
       <c r="E306" t="n">
+        <v>0.3845</v>
+      </c>
+      <c r="F306" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45047.33333333334</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDOMR</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="F307" t="n">
         <v>0.3849</v>
       </c>
-      <c r="F306" t="n">
-        <v>0.385</v>
-      </c>
-      <c r="G306" t="n">
+      <c r="G307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45078.33333333334</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDOMR</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.3849</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0.3849</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45110.33333333334</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDOMR</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.3849</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.3849</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G309" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Oman_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Oman_FX.xlsx
@@ -8167,10 +8167,10 @@
         <v>0.385</v>
       </c>
       <c r="E309" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="F309" t="n">
         <v>0.3849</v>
-      </c>
-      <c r="F309" t="n">
-        <v>0.385</v>
       </c>
       <c r="G309" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Oman_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Oman_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G309"/>
+  <dimension ref="A1:G310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>36251.33333333334</v>
+        <v>36251.375</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>36770.375</v>
+        <v>36770.33333333334</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>37347.33333333334</v>
+        <v>37347.375</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>37712.33333333334</v>
+        <v>37712.375</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>38078.33333333334</v>
+        <v>38078.375</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>38443.33333333334</v>
+        <v>38443.375</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>38628.33333333334</v>
+        <v>38628.375</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>38992.33333333334</v>
+        <v>38992.375</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -8170,9 +8170,34 @@
         <v>0.384</v>
       </c>
       <c r="F309" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45139.33333333334</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDOMR</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="F310" t="n">
         <v>0.3849</v>
       </c>
-      <c r="G309" t="n">
+      <c r="G310" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Oman_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Oman_FX.xlsx
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>36251.375</v>
+        <v>36251.33333333334</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>36770.33333333334</v>
+        <v>36770.375</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>37347.375</v>
+        <v>37347.33333333334</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>37712.375</v>
+        <v>37712.33333333334</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>38078.375</v>
+        <v>38078.33333333334</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>38443.375</v>
+        <v>38443.33333333334</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>38628.375</v>
+        <v>38628.33333333334</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>38992.375</v>
+        <v>38992.33333333334</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>0.384</v>
       </c>
       <c r="F310" t="n">
-        <v>0.3849</v>
+        <v>0.384</v>
       </c>
       <c r="G310" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Oman_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Oman_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G310"/>
+  <dimension ref="A1:G313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8201,6 +8201,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45170.33333333334</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDOMR</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="F311" t="n">
+        <v>0.3849</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45201.375</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDOMR</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.3849</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="F312" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45231.375</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDOMR</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0.3849</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0.3849</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Oman_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Oman_FX.xlsx
@@ -8270,7 +8270,7 @@
         <v>0.3849</v>
       </c>
       <c r="F313" t="n">
-        <v>0.3849</v>
+        <v>0.385</v>
       </c>
       <c r="G313" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Oman_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Oman_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G313"/>
+  <dimension ref="A1:G314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7597,12 +7597,35 @@
         <v>0.385</v>
       </c>
       <c r="E313">
-        <v>0.3849</v>
+        <v>0.384</v>
       </c>
       <c r="F313">
         <v>0.385</v>
       </c>
       <c r="G313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="2">
+        <v>45261.375</v>
+      </c>
+      <c r="B314" t="s">
+        <v>7</v>
+      </c>
+      <c r="C314">
+        <v>0.385</v>
+      </c>
+      <c r="D314">
+        <v>0.385</v>
+      </c>
+      <c r="E314">
+        <v>0.384</v>
+      </c>
+      <c r="F314">
+        <v>0.384</v>
+      </c>
+      <c r="G314">
         <v>0</v>
       </c>
     </row>
